--- a/性能.xlsx
+++ b/性能.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\wd\956 doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\wd\956_doc_git_v\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844F2205-DA61-4FE7-A20E-8442C0ACA090}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{357474D4-C9F8-4938-8141-BB461A324407}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -875,14 +875,11 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="zh-CN"/>
@@ -1094,14 +1091,11 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="zh-CN"/>
@@ -1226,14 +1220,11 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="zh-CN"/>
@@ -1253,20 +1244,6 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -1300,14 +1277,11 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="zh-CN"/>
@@ -2450,16 +2424,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>655759</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>119429</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>531201</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>60813</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>62278</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>115032</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>457932</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>56417</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2752,8 +2726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+    <sheetView tabSelected="1" topLeftCell="D13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
